--- a/tehnici_de_imbunatatire_a_performantelor.xlsx
+++ b/tehnici_de_imbunatatire_a_performantelor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debora\Desktop\AI\Teme_suplimentare\retele_conv_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D64973F1-60A4-46CB-9027-6F44DB9E3CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E563CB-2C83-44FC-95B7-BAC4DFB74EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3912" yWindow="1488" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{F53B9804-5FB4-4018-89B7-1313E336AC03}"/>
+    <workbookView xWindow="4608" yWindow="2184" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{F53B9804-5FB4-4018-89B7-1313E336AC03}"/>
   </bookViews>
   <sheets>
     <sheet name="big_dataset" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,20 +505,28 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="4">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tehnici_de_imbunatatire_a_performantelor.xlsx
+++ b/tehnici_de_imbunatatire_a_performantelor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debora\Desktop\AI\Teme_suplimentare\retele_conv_covid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debora\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4174FAC-B272-4349-9B3D-BCEEE9A2B9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77F5F27-8FF1-4099-B623-21B8094EDC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4608" yWindow="2184" windowWidth="17280" windowHeight="9420" xr2:uid="{F53B9804-5FB4-4018-89B7-1313E336AC03}"/>
+    <workbookView xWindow="4956" yWindow="2532" windowWidth="17280" windowHeight="9420" xr2:uid="{F53B9804-5FB4-4018-89B7-1313E336AC03}"/>
   </bookViews>
   <sheets>
     <sheet name="big_dataset" sheetId="1" r:id="rId1"/>

--- a/tehnici_de_imbunatatire_a_performantelor.xlsx
+++ b/tehnici_de_imbunatatire_a_performantelor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debora\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debora\Desktop\AI\Teme_suplimentare\retele_conv_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77F5F27-8FF1-4099-B623-21B8094EDC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492E224E-575C-4D0C-A245-70E53BF894DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4956" yWindow="2532" windowWidth="17280" windowHeight="9420" xr2:uid="{F53B9804-5FB4-4018-89B7-1313E336AC03}"/>
+    <workbookView xWindow="444" yWindow="468" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{F53B9804-5FB4-4018-89B7-1313E336AC03}"/>
   </bookViews>
   <sheets>
     <sheet name="big_dataset" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="24">
   <si>
     <t>Tehnica</t>
   </si>
@@ -48,13 +48,70 @@
   </si>
   <si>
     <t xml:space="preserve">Batch Normalization </t>
+  </si>
+  <si>
+    <t>Img_size</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>conv1</t>
+  </si>
+  <si>
+    <t>conv2</t>
+  </si>
+  <si>
+    <t>conv3</t>
+  </si>
+  <si>
+    <t>n4</t>
+  </si>
+  <si>
+    <t>conv4</t>
+  </si>
+  <si>
+    <t>n5</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>n_epochs</t>
+  </si>
+  <si>
+    <t>64x64</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>3, 3</t>
+  </si>
+  <si>
+    <t>5, 5</t>
+  </si>
+  <si>
+    <t>RMSprop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,13 +119,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEFAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -112,18 +183,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDEFAFA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -432,48 +515,444 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A198DE2E-99BC-4247-AB6F-0B5BEF5EB08F}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3">
+        <v>64</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3">
+        <v>128</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3">
+        <v>128</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3">
+        <v>512</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="P2" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>9</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="S2" s="2">
+        <v>0.7046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3">
+        <v>64</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3">
+        <v>128</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3">
+        <v>128</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="3">
+        <v>512</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="P3" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>9</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>0.5</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3">
+        <v>64</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3">
+        <v>128</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3">
+        <v>128</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3">
+        <v>512</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="P4" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>9</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>256</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3">
+        <v>256</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3">
+        <v>256</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="3">
+        <v>256</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3">
+        <v>256</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="P5" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>30</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3">
+        <v>256</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3">
+        <v>256</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3">
+        <v>256</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="3">
+        <v>256</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3">
+        <v>256</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="P6" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>8</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -483,47 +962,348 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD414A7-B784-4B48-8253-303395225DA0}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" customWidth="1"/>
+    <col min="18" max="18" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3">
+        <v>64</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3">
+        <v>128</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3">
+        <v>128</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3">
+        <v>512</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="P2" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>9</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="S2" s="2">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3">
+        <v>64</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3">
+        <v>128</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3">
+        <v>128</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="3">
+        <v>512</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="P3" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>9</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>0.5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3">
+        <v>64</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3">
+        <v>128</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3">
+        <v>128</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3">
+        <v>512</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="P4" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>9</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>256</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3">
+        <v>256</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3">
+        <v>256</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="3">
+        <v>256</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3">
+        <v>256</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="P5" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>30</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.96879999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3">
+        <v>64</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3">
+        <v>123</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3">
+        <v>256</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="3">
+        <v>512</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="P6" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>8</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.94989999999999997</v>
       </c>
     </row>
   </sheetData>
